--- a/doc/second sprint/Release Burndown Chart.xlsx
+++ b/doc/second sprint/Release Burndown Chart.xlsx
@@ -215,10 +215,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1408,7 +1408,7 @@
   <dimension ref="C10:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E11">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0</v>
